--- a/data/amazon_url_4_review_data.xlsx
+++ b/data/amazon_url_4_review_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,86 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>User_Star_rating</t>
+          <t>productID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Review_content</t>
+          <t>prodSiteID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Reviewer_name</t>
+          <t>ReviewID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Review_title</t>
+          <t>review_header</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Helpful_votes</t>
+          <t>reviewer_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Verified_purchase</t>
+          <t>review_content</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>review_star_rating</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>review_helpful_votes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>verified_purchase</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>I love my phone!</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>I was skeptical at first because when I received the phone it kept updating itself but I got confidence when I read it was normal until it reached its missed updates. It is now fully and working like a charm. My phone is so cute, fast, with all the bells and whistles. Great buy!</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>I love my phone!</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -497,9 +523,70 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Great phone</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I ordered the S22 refurbished to replace my S9. It was packaged well and out of the box, looked in great condition. There was just some plastic peeling on a corner, but with the phone in a case, it's never visible or an issue.
+I've had the phone a month and half now and it works amazing. It's a major upgrade from the S9. The battery life is double what my S9 was at. i can easily go over 24 hours without a charge... longer, if I don't play my games as much as I do. I do not use Bluetooth or location services often, so I have those off 95% of the time, and I also don't make phone calls, so the battery life is dependent on playing games, using the internet and texting mostly. It was unlocked, as advertised, even though I messaged them prior to please double check, since there were reviews of them not being unlocked. I am on cricket, and it works with no issues.
+No complaints. If you are looking to buy a used phone that won't break your wallet, this company is worth the shot.</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No problems with the refurb. S22 camera great, battery and fingerprint sensor are disappointments</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Max Oldham</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>It's a real step up from my S9, especially the camera, especially 3x wide mode for close ups of small things.
 But the battery time between recharges and also the fingerprint sensor is a major step down. Needs a charge in the afternoon if I've used it heavily that day. So I got a power pack and that helps, but it's a shame I needed to do that.
@@ -508,54 +595,15 @@
 Another minus was I couldn't get real accident insurance from Samsung or my carrier so I would have to go with 3rd party. Too much fine print for me to believe it's any good, so I'm `self-insured'. if I break the screen, it's never going to have any trade-in value and then I'll be looking for another refurb in the $400 price range. Better than paying like $200 for insurance and possibly deductibles for the next few years.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Max Oldham</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No problems with the refurb. S22 camera great, battery and fingerprint sensor are disappointments</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>7 people found this helpful</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>I ordered the S22 refurbished to replace my S9. It was packaged well and out of the box, looked in great condition. There was just some plastic peeling on a corner, but with the phone in a case, it's never visible or an issue.
-I've had the phone a month and half now and it works amazing. It's a major upgrade from the S9. The battery life is double what my S9 was at. i can easily go over 24 hours without a charge... longer, if I don't play my games as much as I do. I do not use Bluetooth or location services often, so I have those off 95% of the time, and I also don't make phone calls, so the battery life is dependent on playing games, using the internet and texting mostly. It was unlocked, as advertised, even though I messaged them prior to please double check, since there were reviews of them not being unlocked. I am on cricket, and it works with no issues.
-No complaints. If you are looking to buy a used phone that won't break your wallet, this company is worth the shot.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Nichole</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Great phone</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>One person found this helpful</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -563,9 +611,27 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Excellent condition is not an industry term</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>James H.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>+The phone arrived a day earlier than the shipping prediction indicated (I might not have needed the extra $14 to advance delivery by a day).
 ---&gt;&gt;&gt; 1 month Update: This phone's Data and phone reception is Horrible no matter where I go in the Baltimore metro area! Comparing side by side with working S-6 and S-7 phones this phone will not detect a Data signal in many urban settings where I could previously make and receive calls, offering the Ø symbol rather than (empty) reception bars. Calls will not come through unless I am on WiFi. ( Wifi transmissions/receptions frequently completely drops off when moving from room to room in an average size house with 6 WiFi access points. Not so with the S-6 or S-7).
@@ -574,22 +640,15 @@
 -- The generic "C" charger cable does not easily fit into the phone. The first time I plugged it in I could not get it to seat so I had to fiddle with it to stay in, wedging the phone to keep it from sliding out. While it showed charging had started it must have come loose shortly after as it did not charge over night. "C" connectors are supposed to fit up or down, but this one only snaps fully in one way. [My Samsung S-6' micro-B had failed after two years and so I was not anxious to use force on any USB (I am an experienced systems / tech manager so this isn't a fear of tech thing)].</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>James H.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Excellent condition is not an industry term</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>18 people found this helpful</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -597,29 +656,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Looks brand new!</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pasha Gibson</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Was unlocked like promised and I switched my sim no problem! The pink color is so pretty and subtle! Def like this shade of pink more than the new iPhone 15 pink shade. Everything works perfectly so far! Love the phone!</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Was unlocked like promised and I switched my sim no problem! The pink color is so pretty and subtle! Def like this shade of pink more than the new iPhone 15 pink shade. Everything works perfectly so far! Love the phone!</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pasha Gibson</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Looks brand new!</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -627,29 +697,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Perfect phone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EDEN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>The phone is perfect, it looks and works like new. Not scratches, not damages, beautiful package with accessories, and a very fluid customer service with this seller</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EDEN</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Perfect phone</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -657,30 +738,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Weird screen with edges that curve UP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sean</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Idk how the phone was refurbished, but the screen is kind of messed up. The edges of it curve upwards, making it impossible to out on a tempered glass screen protector without bubbles.
 There are also a couple scuffs. I would rate the phones at good, maybe pretty good, refurbished, but definitely not excellent. The few scruffs, I can live with, but the screen curving towards is just plain bad.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sean</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Weird screen with edges that curve UP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -688,29 +780,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>So far so good</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Joni</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Got it refurbished so you can't beat this price. My phone company wanted over $1,000 for this, some extremely happy that I got it from here instead. My only thing that's worth taking a star off is that every so often, the speaker sounds like hell. When I tell you, it sounds like it got wet and stayed wet for days. But I know I didn't get it wet though. It's strange because this problem always goes away Within maybe 10 or 15 minutes. Because of this, I haven't thought to send it back, I just hate having to return things. So sometimes I can't have the speaker phone on. I can hear fine talking without it so it's not that much of a concern. But it still sucks sometimes. Even on power saving mode the battery life is kind of a joke. It charges back up fast, so I'm willing to sacrifice that for a small, lightweight phone. Over all I'm happy with it.</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Got it refurbished so you can't beat this price. My phone company wanted over $1,000 for this, some extremely happy that I got it from here instead. My only thing that's worth taking a star off is that every so often, the speaker sounds like hell. When I tell you, it sounds like it got wet and stayed wet for days. But I know I didn't get it wet though. It's strange because this problem always goes away Within maybe 10 or 15 minutes. Because of this, I haven't thought to send it back, I just hate having to return things. So sometimes I can't have the speaker phone on. I can hear fine talking without it so it's not that much of a concern. But it still sucks sometimes. Even on power saving mode the battery life is kind of a joke. It charges back up fast, so I'm willing to sacrifice that for a small, lightweight phone. Over all I'm happy with it.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Joni</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>So far so good</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -722,25 +825,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Better than iPhone</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sean W.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>I like how customizable the screen is,Samsung phones from what I can tell seem to have a lot more features that apple does not. This is coming from a long time Apple user, I've been using Apple phones since they first came out and I finally just got tired of paying such a high price for the exact same phone. They never change anything really. No matter how much they hype it, all they do is change is the chip. So to the important things with Samsung. You have the edge bar which I use a lot. Your phone is 100% more customizable. The battery seems to be the same on all cell phones. the camera however, is way better. I know this because my boss mentioned that the photos I sent him look spectacular, far better than any photos I've been sending him with the iPhone. So this is pretty good for a refurbished used phone from Samsung. I just ordered the Samsung S23 Ultra, brand new. So we'll see how that phone is. I'm thinking it's gonna be 10 times better than what this is. its a great phone to start with if you want to switch over. Get out of the apple ecosystem. The only reason I gave it 4 stars and not 5 is because there's certain apps. I can't download that I had before. And that's because the shady frs at apple have exclusive rights to certain app so, not samsung's fault. Still disappointing that I can't use apps that I was using regularly with apple on samsung.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sean W.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Better than iPhone</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -752,25 +866,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Better than iPhone</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sean W.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>I like how customizable the screen is,Samsung phones from what I can tell seem to have a lot more features that apple does not. This is coming from a long time Apple user, I've been using Apple phones since they first came out and I finally just got tired of paying such a high price for the exact same phone. They never change anything really. No matter how much they hype it, all they do is change is the chip. So to the important things with Samsung. You have the edge bar which I use a lot. Your phone is 100% more customizable. The battery seems to be the same on all cell phones. the camera however, is way better. I know this because my boss mentioned that the photos I sent him look spectacular, far better than any photos I've been sending him with the iPhone. So this is pretty good for a refurbished used phone from Samsung. I just ordered the Samsung S23 Ultra, brand new. So we'll see how that phone is. I'm thinking it's gonna be 10 times better than what this is. its a great phone to start with if you want to switch over. Get out of the apple ecosystem. The only reason I gave it 4 stars and not 5 is because there's certain apps. I can't download that I had before. And that's because the shady frs at apple have exclusive rights to certain app so, not samsung's fault. Still disappointing that I can't use apps that I was using regularly with apple on samsung.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sean W.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Better than iPhone</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -778,29 +903,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Basically a brand new phone. Not a scratch or blemish. Screen and camera perfect. 512GB is the only way to go - never run out of space again. Get an unlocked device and cancel your expensive carrier and go Visible or Mint. Take back control of your wireless service!</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEAN RYAN</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Awesome!</t>
+          <t>Small but mighty</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>F. Wynn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Did not realize this would be so much smaller than my Note9, but it has way more features so I am not mad.</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -812,25 +948,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The phone works well. I like it.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The charger that came with it was a slow charger. They sent me another one very quickly</t>
+          <t>Awesome!</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>SEAN RYAN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Basically a brand new phone. Not a scratch or blemish. Screen and camera perfect. 512GB is the only way to go - never run out of space again. Get an unlocked device and cancel your expensive carrier and go Visible or Mint. Take back control of your wireless service!</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -842,25 +989,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El teléfono en si está perfecto, funciona como debe, estaba intacto. El único detalle es que el cargador solo duró un par de meses</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Daniel Jose Fuentes Palacios</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Todo perfecto pero...</t>
+          <t>The charger that came with it was a slow charger. They sent me another one very quickly</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>The phone works well. I like it.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -868,29 +1026,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Great working condition</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Dellon jones</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Todo perfecto pero...</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Daniel Jose Fuentes Palacios</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>El teléfono en si está perfecto, funciona como debe, estaba intacto. El único detalle es que el cargador solo duró un par de meses</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -898,29 +1067,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Need a new phone and decided to go with a refurbed S22. Setup was easy and the phone works just like it was new. Very minor wear around the edges, but I keep my phone in a case, so it doesn't matter. Super happy with the whole process and the device itself.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>David B</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Perfect replacement for my previous phone</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Dellon jones</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>Great working condition</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -928,29 +1108,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No problems very good phone</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Jose Raul Diaz Ramos</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nice phone</t>
+          <t>Perfect replacement for my previous phone</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>David B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>Need a new phone and decided to go with a refurbed S22. Setup was easy and the phone works just like it was new. Very minor wear around the edges, but I keep my phone in a case, so it doesn't matter. Super happy with the whole process and the device itself.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -958,29 +1149,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The phone was mint condition, I saw the reviews on how good seller n products are, and they were absolutely tru, phone came well packaged and wayyyy early, !!! Very pleased!</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>buttercup</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Absolutely beautiful</t>
+          <t>Nice phone</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Jose Raul Diaz Ramos</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>No problems very good phone</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -988,29 +1190,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>It was super easy set up and it has been good little phone so ar</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Dezare</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Easy set up</t>
+          <t>Absolutely beautiful</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>buttercup</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>The phone was mint condition, I saw the reviews on how good seller n products are, and they were absolutely tru, phone came well packaged and wayyyy early, !!! Very pleased!</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1022,25 +1235,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>New it is an expensive Samsung. This reconditioned phone is great, great price, as good as my first $1500. Cell.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Leslie</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>This was reconditioned</t>
+          <t>Easy set up</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Dezare</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>It was super easy set up and it has been good little phone so ar</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1052,25 +1276,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Almost sent it back</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ian Castellanos</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Phone wouldn't read SIM, tried everything the manufacturer and service provider recommended but nothing worked. Checked IMEI, it was clean but reported that it was still registered as a Verizon phone, not factory unlocked. Thought the phone must have still been locked into a plan or something, asked for a refund and the seller was super quick to respond and accept the refund. Fast forward over a month and I haven't had a chance to send it back but I read on a forum that Verizon automatically unlocks it's phones after 2 months, so I try again. Same issue. So I look at the IMEI again and I see that it brings up a different model number than the phone does. Checked into it and it turns out the seller flashed the factory unlocked OS onto the phone so thought the OS may be corrupted and not reading the SIM. I was planning to use Metro by T-mobile anyway so I flashed the Metro OS onto the phone. Still same issue. So at this point the only thing it could be is a hardware not software issue. Start looking into what it takes to test or replace the SIM reader hardware and while browsing images I notice that the Sim tray for the S22 online is different from what I have in my phone. Mine has the SIM tray for the S21. So I ordered a new SIM tray, came the next day and other than Sim orientation it is identical to the one I have. Tiny little mistake by the seller caused this huge headache, but I'm glad I did send it back because I have an awesome S22 at a great price from these guys. But please, check the little details guys.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ian Castellanos</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Almost sent it back</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>72 people found this helpful</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1078,29 +1313,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>These refurbished phones can be a bit hit and miss (last one I ordered of a different model was a complete bust), but this one seems to be working really well. The rating of "Good Condition" was more than fair, and the battery life has been good so far. It's only been a week, but so far a good start!</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mike E. Straw</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jackpot!</t>
+          <t>This was reconditioned</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3 people found this helpful</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>New it is an expensive Samsung. This reconditioned phone is great, great price, as good as my first $1500. Cell.</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1111,6 +1357,65 @@
         <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jackpot!</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mike E. Straw</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>These refurbished phones can be a bit hit and miss (last one I ordered of a different model was a complete bust), but this one seems to be working really well. The rating of "Good Condition" was more than fair, and the battery life has been good so far. It's only been a week, but so far a good start!</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S22: A Top-Notch Smartphone with Impressive Camera, Display, and Performance</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mac</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>I recently purchased the Samsung Galaxy S22 Smartphone in Phantom White (Renewed) and I am thoroughly impressed with this device. The phone is factory unlocked, which gives me the flexibility to use it with any carrier, and the 128GB storage capacity is more than enough to store all of my photos, videos, and apps.
 The camera on this phone is nothing short of amazing. The 8K camera and video capabilities allow me to capture stunning, high-quality footage and the resulting images are incredibly clear and detailed. I love the fact that I can take professional-level photos and videos with just my phone.
@@ -1119,52 +1424,15 @@
 Overall, I highly recommend the Samsung Galaxy S22 Smartphone to anyone in the market for a high-quality Android cell phone. The renewed version is an excellent value and performs just as well as a brand new device. You won't be disappointed with this purchase!</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mac</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy S22: A Top-Notch Smartphone with Impressive Camera, Display, and Performance</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>48 people found this helpful</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Bought an S22 Ultra. In very impressive condition for refurbished. No problems with the phone and battery life is what I expected.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Riley C.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Awesome refurbished phone</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>One person found this helpful</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1172,29 +1440,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fully functional equipment</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Gerardo Gza</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fully functional equipment</t>
+          <t>Awesome refurbished phone</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Riley C.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bought an S22 Ultra. In very impressive condition for refurbished. No problems with the phone and battery life is what I expected.</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1202,29 +1481,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The phone was shipped fast arrived in 2 days had to update it like 4x then it ran smoothly with zero flaws.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Zero flaws</t>
+          <t>Fully functional equipment</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Gerardo Gza</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>Fully functional equipment</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1235,58 +1525,80 @@
         <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Zero flaws</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>The phone was shipped fast arrived in 2 days had to update it like 4x then it ran smoothly with zero flaws.</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>The phone is great! Can't tell it was renewed.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Nalexander</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>When I first saw the phone on my porch, I was excited to open it. Once I inspected the phone, I found no scratches or anything like that. The seller definitely out here delivering on promises.
 The only gripe is that the charger that came with the phone does not adequately charge the phone. My other phones, I have been able to use the phone while it's charging. With this one, I have had it on the charger for the past hour and it's been stuck on 15%.
 Overall...great phone and fast delivery when expedited shipping is paid for. The charger left me slightly disappointed because I have to buy another one. Thanks yall</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Nalexander</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>The phone is great! Can't tell it was renewed.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>11 people found this helpful</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>I ordered a phone off of ebay and it was not unlocked. This one was!!! Works great with verizon in the US.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Stephanie Pearl</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>WORKS GREAT THANK YOU SO MUCH</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1294,9 +1606,27 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Excellent device, no software updates</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Julian Lizarraga</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>I'll get straight to the point. The price is amazing. The phone is in near perfect condition, being a esthetically next to flawless, save for a couple miniscule scuffs on the aluminum railing. The S22+ itself is very fast, reliable and lives up to what is stated on the product page.
 The one big red flag here is the "unlocked" part. The phone will accept any carrier, such as my T-mobile SIM card, and function as advertised. However, this phone is currently running on Android 12, which is not up to date, and many different attempts at updating manually have been complete failures. The device was originally a Verizon locked phone before becoming unlocked, which means the IMEI is still registered to said carrier.
@@ -1304,22 +1634,15 @@
 To summarize my review: If you don't mind having a device without the possibility of future updates, then this phone is perfect and works as advertised in every other way.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Julian Lizarraga</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Excellent device, no software updates</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>48 people found this helpful</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1327,9 +1650,68 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>WORKS GREAT THANK YOU SO MUCH</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Stephanie Pearl</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I ordered a phone off of ebay and it was not unlocked. This one was!!! Works great with verizon in the US.</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>I'm dissapointed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>NOT FACTORY UNLOCKED! I didn't realize this immediately because it is not specifically sim-locked, and data and calling worked fine. Fast forward 6 months, I get an email from work telling me I'll be kicked off the MDM policy (work email on personal phone) unless I update my OS. Evidently it was a Verizon phone, which can only receive software updates if you have Verizon SIM card. I have spent days trying to get support from Samsung, Verizon, AT&amp;T, Amazon, and the Amazon seller only to be told to pound sand &gt;:[
 It would seem my only option now is to take a risk with leaked / pirated firmware flashing, which I'm worried will trip the Knox security (which is the only reason I bought the phone in the first place, as Knox security was required by my employer).
@@ -1339,52 +1721,15 @@
 Battery life is not impressive. Once again the 5t was better. This may not be entirely fair b/c I do use the always-on display, but on the other hand the processor should be much more efficient for how much newer it is. I mostly believe this is similar to the issue of constantly waking up in my pocket. A proper proximity sensor could have solved this rather than just using the selfie camera, which is again another example of form over function (It also seems like samsung doesn't even attempt to detect being in you pocket in order to reduce battery / ignore touch screen).</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>I'm dissapointed</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>23 people found this helpful</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>This phone isn't compatible with signals here, if you want to get it buy the international version of it. Had to change from claro to t-mobile because these are locked to US signals only.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Joshua Sotomayor Lopez</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>For Puertorican users</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1395,28 +1740,39 @@
         <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Phone came good</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>José</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Regarding the state of the phone, everything looks good, all according to the description. Unlocked, good condition (few scratches up and there, just small details) only issue is that the S-pen came in red? I mean, I don't really mind that much but still something to point out. Regarding the shipment, just a generic box without a fragile sticker or tag??? That can be dangerous.
 Anyways, I am happy it came good as advertised.
 After 2 months of use the phone is phenomenal, upgrading to 4 stars.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>José</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Phone came good</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1427,6 +1783,65 @@
         <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>For Puertorican users</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Joshua Sotomayor Lopez</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>This phone isn't compatible with signals here, if you want to get it buy the international version of it. Had to change from claro to t-mobile because these are locked to US signals only.</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Good value</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ete</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Came with Verizon lock, but customer service helped me to get it unlocked.
 The unlock worked, which makes this phone carrier unlocked (not the same as a factory unlocked device). So regardless of what sim card you insert, the current carrier will automatically load their junk softwares on the phone that are impossible to remove.
@@ -1434,32 +1849,43 @@
 I guess it’s a fair trade for the price</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Ete</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Good value</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>8 people found this helpful</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Spam calls</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>E. H. Hanks</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Great phone with feature you won't see in a pixel. Conversely, it lacks native features you come to expect unless you use an additional app. I do' like that. The less apps th better IMO.
 Phone arrived in fantastic condition, unlocked with developer mode enabled. Which they used to unlock the original AT&amp;T phone. This phone is not "factory unlocked" as AT&amp;T does not sell unlocked phones.
@@ -1467,52 +1893,15 @@
 In conclusion the S-22 was top of the line phone a couple years ago and a great daily driver for the price despite all the samsung crap. Despite this I grant only three stars for the robocalls annoyance!</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E. H. Hanks</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Spam calls</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Arrived a day early. Not a scratch on it (renewed). Transferred my other phone over to it easily. Connected to my provider with no issues. Has functioned perfectly since day one.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sean Wilson</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Pretty good</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1524,25 +1913,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>I Bought 2. Googled the model number and found out its for Canada. Not compatible with Spectrum Mobile. My 2 That i bought work with Straight Talk and Mint Mobile. Unsure about other carriers.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Matt H.</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Works.</t>
+          <t>Pretty good</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5 people found this helpful</t>
+          <t>Sean Wilson</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>Arrived a day early. Not a scratch on it (renewed). Transferred my other phone over to it easily. Connected to my provider with no issues. Has functioned perfectly since day one.</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1553,58 +1953,80 @@
         <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Works.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Matt H.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I Bought 2. Googled the model number and found out its for Canada. Not compatible with Spectrum Mobile. My 2 That i bought work with Straight Talk and Mint Mobile. Unsure about other carriers.</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>5 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Great conditions...not unlocked</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>The phone is in brand new conditions, no scratches nor any other sign of previous use. Packaging wasn't that great though, it comes at the bottom of a regular cardboard box with a cardboard lid on top of it and no foam or any other kind of protection. As stated no manuals or any other original documentation whatsoever, not a big deal if you ask me, charger is not original (mine came with a Motorola branded head).
 Removed one star from the review because the phone is not unlocked as advertised, mine came Verizon locked, it's a hassle but not a dealbreaker, there are plenty of trustworthy unlocking shops and online services out there, just had to spend 30 extra bucks...still saving a lot of money.
 EDIT: Turns out Verizon locked phones are not that easy to unlock, it would cost me 200 extra bucks so I have to return the phone</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Claudio</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Great conditions...not unlocked</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>46 people found this helpful</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Where is the Charger? Charging cable and SIM tool were in the box. The phone itself is in excellet condition and it was unlocked as described. Luckily I had a charger I wasn't using but would have liked one since it sounded like it would be included. Too early to tell on battery life. It arrived full drained. Using the phone has been easy but it did have several hours of updates since it is an older model even though only a year removed from being new. Seems pretty quick and responsive so far.</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Scott H.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Where is the Charger?</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>10 people found this helpful</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1616,25 +2038,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>There are a couple of things that I just cannot get to work. One of them is to take a screenshot by swiping the edge of my palm across the page. Other than that, it's a pretty solid phone.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>M. K. G.</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>So far so good... sort of</t>
+          <t>Where is the Charger?</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Scott H.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>Where is the Charger? Charging cable and SIM tool were in the box. The phone itself is in excellet condition and it was unlocked as described. Luckily I had a charger I wasn't using but would have liked one since it sounded like it would be included. Too early to tell on battery life. It arrived full drained. Using the phone has been easy but it did have several hours of updates since it is an older model even though only a year removed from being new. Seems pretty quick and responsive so far.</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>10 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1642,29 +2075,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>charles</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Body not look good as it shold be</t>
+          <t>So far so good... sort of</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>M. K. G.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>There are a couple of things that I just cannot get to work. One of them is to take a screenshot by swiping the edge of my palm across the page. Other than that, it's a pretty solid phone.</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1672,29 +2116,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Body not look good as it shold be</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>charles</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Quite a few of my apps occasionally stop responding or force close (phone &amp; apps are up to date). Also, when I use the voice text feature the screen shuts off while I'm still talking. Battery does not last as long as one of the refurbished s22s that I tried before buying this (supposedly) brand new one. Actually, this has all of the exact same issues as the refurbished one I bought for $400. If I could still return this one I would and buy another refurbished model. I thought all of these issues kn the last one were a result of being refurbished.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Matt Welch</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Apps force close and screen shuts off when it shouldn't.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>One person found this helpful</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1702,29 +2157,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>This refurbished phone came to me looking really great, like new. When i turned it on, it showed an AT&amp;T start up screen so i panicked for a hot second. I put my SIM card in and it changed to T- Mobile. Everything transferred easily and everything works great on the phone. I couldn't be happier. The seller had great response time when I had questions.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Amanda Galvez</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Great phone, easy set up</t>
+          <t>Apps force close and screen shuts off when it shouldn't.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10 people found this helpful</t>
+          <t>Matt Welch</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>Quite a few of my apps occasionally stop responding or force close (phone &amp; apps are up to date). Also, when I use the voice text feature the screen shuts off while I'm still talking. Battery does not last as long as one of the refurbished s22s that I tried before buying this (supposedly) brand new one. Actually, this has all of the exact same issues as the refurbished one I bought for $400. If I could still return this one I would and buy another refurbished model. I thought all of these issues kn the last one were a result of being refurbished.</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1732,29 +2198,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Phone arrived in nearly perfect condition, booted up and worked great with no problems.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Chingo Mandinguez</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nice phone at a bargain price.</t>
+          <t>Great phone, easy set up</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Amanda Galvez</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>This refurbished phone came to me looking really great, like new. When i turned it on, it showed an AT&amp;T start up screen so i panicked for a hot second. I put my SIM card in and it changed to T- Mobile. Everything transferred easily and everything works great on the phone. I couldn't be happier. The seller had great response time when I had questions.</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1762,29 +2239,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Damaged edges and scratches on the screen</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Gule</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I was really interested to have this phone but when I unbox and take a look, I noticed there are easily noticeable dents on the edges of the phone and one scratch in the center of the phone these are the defects which are not described or explained by the seller. Is so disappointed and unsatisfied with this phone purchase. The price I paid doesn’t deserve for such a poor quality product. I undressed it is renewed phone but not this much hardware damage. I need a full refund or replacement as soon as possible because I am traveling by nex week. I tried to upload the picture of the defective parts of the phone I hope you can have a little hint from the picture since it is not clear enough I tried my best. I need you to resolve this issue immediately please. Thank you $740 for a damaged phone?? Really</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>2</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>I was really interested to have this phone but when I unbox and take a look, I noticed there are easily noticeable dents on the edges of the phone and one scratch in the center of the phone these are the defects which are not described or explained by the seller. Is so disappointed and unsatisfied with this phone purchase. The price I paid doesn’t deserve for such a poor quality product. I undressed it is renewed phone but not this much hardware damage. I need a full refund or replacement as soon as possible because I am traveling by nex week. I tried to upload the picture of the defective parts of the phone I hope you can have a little hint from the picture since it is not clear enough I tried my best. I need you to resolve this issue immediately please. Thank you $740 for a damaged phone?? Really</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Gule</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Damaged edges and scratches on the screen</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1796,25 +2284,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>New problem, phone will not charge, ...I love the phone and easy to use, the majored complaint with these phones is the lack of battery holding a charge. Have used all the tricks that I know to preserving a charge. These phones were not cheap so why have they used the smallest battery available</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Audrey &amp; Kris Sibray</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>New phones</t>
+          <t>Nice phone at a bargain price.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3 people found this helpful</t>
+          <t>Chingo Mandinguez</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>Phone arrived in nearly perfect condition, booted up and worked great with no problems.</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1822,29 +2321,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>My only real issue with this phone is the color. I ordered Red, and I guess in someone's imagination Salmon is Red. I put a Red cover on it so it is actually red now, but the salmon color shows around the camera. Other than that, this is a great phone. After having a few Notes in the past, a stylus is a must for me, thanks Samsung for bringing it back. For all intents and purposes the Ultra is a Note, just note called that anymore.</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>E Reed</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>45</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>My new favorite phone, replaced my Note9</t>
+          <t>New phones</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Audrey &amp; Kris Sibray</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>New problem, phone will not charge, ...I love the phone and easy to use, the majored complaint with these phones is the lack of battery holding a charge. Have used all the tricks that I know to preserving a charge. These phones were not cheap so why have they used the smallest battery available</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1856,25 +2366,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>This phone is still amazing in 2023, picture quality and the battery percentage isgreat also came in excellent condition.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Daniel Galbraith</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Worth every penny</t>
+          <t>My new favorite phone, replaced my Note9</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>E Reed</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>My only real issue with this phone is the color. I ordered Red, and I guess in someone's imagination Salmon is Red. I put a Red cover on it so it is actually red now, but the salmon color shows around the camera. Other than that, this is a great phone. After having a few Notes in the past, a stylus is a must for me, thanks Samsung for bringing it back. For all intents and purposes the Ultra is a Note, just note called that anymore.</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1882,29 +2403,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>El celular llegó bastante rápido. La caja en la que llegó era genérica, pero traía un cargador con su respectivo cable, además del PIN para la bandeja de la tarjeta SIM. No presentó ningún rasguño y está 100% funcional. Estoy bastante satisfecho con la compra.</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Fabián Borbón</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>47</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Excelentes condiciones, sin ningún problema</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>Daniel Galbraith</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>This phone is still amazing in 2023, picture quality and the battery percentage isgreat also came in excellent condition.</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1912,29 +2444,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Phone is fully functional and in top condition as described. Delivered within two days with no scratches or dings. Brand new phone!</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Cornelius</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>48</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S22 Ultra</t>
+          <t>Happy customer/ great product</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>Love it! Fresh out of the the box, it exceeded my old phone.</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1942,71 +2485,70 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Love it! Fresh out of the the box, it exceeded my old phone.</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>49</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Happy customer/ great product</t>
+          <t>Great support from Bayshine Trading!</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>SpamFreeOrDie</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>5</v>
-      </c>
-      <c r="B51" t="inlineStr">
         <is>
           <t>The first phone that arrived was locked to T-Mobile, it somehow slipped through even though it was supposed to be be an unlocked phone. Bayshine Trading, the seller, was very responsive in helping to get me another phone in time for my daughter to take it abroad for a month. Her old phone was completely broken, so this was really important. Their support department even personally verified that the phone was unlocked before it shipped.
 Mistakes sometimes happen; it’s how those mistakes are handled that separate the winners from the losers. Bayshine is definitely a winner!
 As for the phone, it’s a step up - especially the camera - from her previous iPhone.</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SpamFreeOrDie</t>
-        </is>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>12 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Great support from Bayshine Trading!</t>
+          <t>Wifi doesnt work on mine. Returning</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12 people found this helpful</t>
+          <t>TIMMY-ER</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>4</v>
-      </c>
-      <c r="B52" t="inlineStr">
         <is>
           <t>The wifi will not start on my phone.
 Wifi option and Bluetooth option is greyed out.
@@ -2016,22 +2558,56 @@
 I can't say the phone is good or bad, so 4 Stars.</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>TIMMY-ER</t>
-        </is>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>51</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wifi doesnt work on mine. Returning</t>
+          <t>Samsung Galaxy S22 Ultra</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>Phone is fully functional and in top condition as described. Delivered within two days with no scratches or dings. Brand new phone!</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2039,29 +2615,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>So the phone overall is pretty good especially the battery life. The one thing I didn't like was how the charging port came in broken. I contacted the seller about but they weren't any help. they said to try a different cord and/or adapter. It's just annoying because now I have to spend money to get this problem fixed.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>rodrigo</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>52</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Charging port</t>
+          <t>Excelentes condiciones, sin ningún problema</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>Fabián Borbón</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>El celular llegó bastante rápido. La caja en la que llegó era genérica, pero traía un cargador con su respectivo cable, además del PIN para la bandeja de la tarjeta SIM. No presentó ningún rasguño y está 100% funcional. Estoy bastante satisfecho con la compra.</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2069,9 +2656,68 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>53</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Charging port</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>rodrigo</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>So the phone overall is pretty good especially the battery life. The one thing I didn't like was how the charging port came in broken. I contacted the seller about but they weren't any help. they said to try a different cord and/or adapter. It's just annoying because now I have to spend money to get this problem fixed.</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Love this phone</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>H. Hover</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>I bought this model last year when it came out (1tb version)
 My wife's phone was acting up, so we upgraded here to the same model because of the great experience I had so far. She likes the sky blue color and it has 512gb of memory for her. More than enough
@@ -2079,52 +2725,15 @@
 Note: I researched and in the model number the U stands for United States, if it has a W it is for Canada.</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>H. Hover</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Love this phone</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>14 people found this helpful</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>I purchased this phone and was really excited. But upon receiving it and putting my SIM card in it asked for an unlock code saying the sim was not accepted. I called many places and learned that the phone is network locked to T-Mobile and that they can’t give me a code to unlock it</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Alissa mumm</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Not fully unlocked</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2132,29 +2741,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>100% recommended</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Fabio</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>55</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Perfecto</t>
+          <t>Not fully unlocked</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>Alissa mumm</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I purchased this phone and was really excited. But upon receiving it and putting my SIM card in it asked for an unlock code saying the sim was not accepted. I called many places and learned that the phone is network locked to T-Mobile and that they can’t give me a code to unlock it</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2166,25 +2786,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Easy to use and in great quality condition, like new. Interface moves pretty face, screen and features work will and was easy to set up and use. Did think it would be slightly bigger based on what's shown but I would highly recommend</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Andrea Nunn</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>56</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Love this phone!! Highly recommend</t>
+          <t>Perfecto</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>100% recommended</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2192,29 +2823,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>57</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Not in "Excellent" condition</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Gerald p Sams</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>For an Excellent condition phone "The screen and body show no signs of cosmetic damage visible from 12 inches away" however, there was a very deep and visible scratch on the screen that was visible well more than 12 inches away. There were also a few other scuffs that I would have been fine with but, this need not meet my expectations for the stated condition.</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
         <v>2</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>For an Excellent condition phone "The screen and body show no signs of cosmetic damage visible from 12 inches away" however, there was a very deep and visible scratch on the screen that was visible well more than 12 inches away. There were also a few other scuffs that I would have been fine with but, this need not meet my expectations for the stated condition.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Gerald p Sams</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Not in "Excellent" condition</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2222,29 +2864,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>58</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Reman phone purchase</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Phone truly was unlocked and I would've thought it was new if I didn't know that I bought it as a Reman. Works great so far! However the fingerprint reader leaves something to be desired.</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Rodney</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Reman phone purchase</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2252,61 +2905,83 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>59</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Love this phone!! Highly recommend</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Andrea Nunn</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Easy to use and in great quality condition, like new. Interface moves pretty face, screen and features work will and was easy to set up and use. Did think it would be slightly bigger based on what's shown but I would highly recommend</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>60</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Totally indistinguishable from a totally new phone</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Charly C.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>I bought the S22 plus renewed and i've been testing this product for three months and i must say that its pretty solid, and this vendor is really trustable, they really renew their products: no scuffs, no scratches, totally clean, nobody can figure it out that was used, i've trying other vendors and most of them sold scuffed phones but not this one.
 This model is not intended for heavy use, the battery is pretty decent for most users but if you use video recording so heavily, this might not be for you and it has nothing to do with this vendor or being renewed but the model itself
 I strongly recommend this vendor btw</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Charly C.</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Totally indistinguishable from a totally new phone</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>11 people found this helpful</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>It took me multiple tries until I found the perfect phone. It'll be nothing but Samsung from now on!</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Dale Gasser</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Love it!</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2314,29 +2989,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Samsung phones seem to be better build quality than the rest of the electronics they sell. So if you have a junky TV, refrigerator or washing machine from them , it is not the same.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>electool</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>61</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Samsung Brand</t>
+          <t>Love it!</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>Dale Gasser</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>It took me multiple tries until I found the perfect phone. It'll be nothing but Samsung from now on!</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2344,29 +3030,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>I updated from a note 10+. I chose this phone because of it's smaller size and how it came in different colors. The phone was dead right out of the box but I was also given a charging block which I did not know it came with despite the description saying it only came with a USB cord so that was a plus. It charged up fine and booted right up. The phone was unlocked as it should be. The transfer process was easy and I just swapped my sim card out and it worked immediately. Everything seems to be working correctly on this phone and I love the camera. This was a great buy!</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>TM</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>62</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Perfect size for my small hands.</t>
+          <t>Samsung Brand</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3 people found this helpful</t>
+          <t>electool</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>Samsung phones seem to be better build quality than the rest of the electronics they sell. So if you have a junky TV, refrigerator or washing machine from them , it is not the same.</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2374,29 +3071,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The phone appearance is great, no freezing in operation, great storage 512 gb, but the phone charger that came with it heats up and it charges very slow. It also not a Samsung charger, nor does it have any fast charging available.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Tanisha P.</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>63</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Phone review</t>
+          <t>Perfect size for my small hands.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>I updated from a note 10+. I chose this phone because of it's smaller size and how it came in different colors. The phone was dead right out of the box but I was also given a charging block which I did not know it came with despite the description saying it only came with a USB cord so that was a plus. It charged up fine and booted right up. The phone was unlocked as it should be. The transfer process was easy and I just swapped my sim card out and it worked immediately. Everything seems to be working correctly on this phone and I love the camera. This was a great buy!</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>3 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2404,29 +3112,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Muy buen vendedor, el producto es tal y como lo ofrece, el producto trabaja perfectamente.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Guillermo Miranda</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>64</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>El producto es fiel con lo que ofrece el vendedor</t>
+          <t>Phone review</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>Tanisha P.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>The phone appearance is great, no freezing in operation, great storage 512 gb, but the phone charger that came with it heats up and it charges very slow. It also not a Samsung charger, nor does it have any fast charging available.</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2434,60 +3153,82 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>65</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>El producto es fiel con lo que ofrece el vendedor</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Guillermo Miranda</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Muy buen vendedor, el producto es tal y como lo ofrece, el producto trabaja perfectamente.</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>66</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Highly Recommend Samsung S 22 plus 258 gigs</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Jewls</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>Highly Recommend Worth the money works with any carrier on mine no scratches dings or dents I swear this is A new Phone
 Absolutely love it thank you so much</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Jewls</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Highly Recommend Samsung S 22 plus 258 gigs</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Perfect condition, and factory unlocked as promised. Feels like a new phone, but at a much better price!</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Caryn Golisch</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Exactly as advertised</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2495,29 +3236,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>I have been using the phone for about two weeks now after trading up from my ancient Galaxy S7. Phone came 3 days early and in beautiful condition. All works wonderfully. Very happy. The packaging was top-notch and showed care and commitment to the customer. Will certainly buy from these folks again. Very happy with the price, quality, and performance. The phone acts and appears brand new. I felt obligated to write a review based on this experience. A good job deserves recognition. I hope everyone gets to have a similar experience.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>67</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wow!</t>
+          <t>Exactly as advertised</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7 people found this helpful</t>
+          <t>Caryn Golisch</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
+        <is>
+          <t>Perfect condition, and factory unlocked as promised. Feels like a new phone, but at a much better price!</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2525,29 +3277,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Everything about the phone, honestly, is awesome. My brother bought one in black and he loved it. Maybe 6 months later I bought one in pink. Everything works except for the internal camera app. I got the message "Warning: camera app failed". I'm waiting on an exchange. If that goes through and the next phone has no issues, I would recommend.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Dave</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>68</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Front facing camera didn't work. Hopefully the exchange will work out.</t>
+          <t>Wow!</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Amazon Customer</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>I have been using the phone for about two weeks now after trading up from my ancient Galaxy S7. Phone came 3 days early and in beautiful condition. All works wonderfully. Very happy. The packaging was top-notch and showed care and commitment to the customer. Will certainly buy from these folks again. Very happy with the price, quality, and performance. The phone acts and appears brand new. I felt obligated to write a review based on this experience. A good job deserves recognition. I hope everyone gets to have a similar experience.</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>7 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2559,25 +3322,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>So far it works fine - made it possible to switch from TMob to prepaid - at a third of the monthly price. But, the phone arrived with a few scratches and scuffs, so I can see it was previously used. Otherwise, it's great!</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Monty Py-fan</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>69</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nearly new</t>
+          <t>Front facing camera didn't work. Hopefully the exchange will work out.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
+        <is>
+          <t>Everything about the phone, honestly, is awesome. My brother bought one in black and he loved it. Maybe 6 months later I bought one in pink. Everything works except for the internal camera app. I got the message "Warning: camera app failed". I'm waiting on an exchange. If that goes through and the next phone has no issues, I would recommend.</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2585,29 +3359,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The product came with a tempered glass set but masking some mild scratches below on the screen.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Everardo</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>70</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Galaxy S22+ Cellphone Renewed</t>
+          <t>Nearly new</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Monty Py-fan</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
+        <is>
+          <t>So far it works fine - made it possible to switch from TMob to prepaid - at a third of the monthly price. But, the phone arrived with a few scratches and scuffs, so I can see it was previously used. Otherwise, it's great!</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2615,29 +3400,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>4</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>71</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Galaxy S22+ Cellphone Renewed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Everardo</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>The product came with a tempered glass set but masking some mild scratches below on the screen.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
         <v>3</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Reception is ok, but I live in a very very rural area. Fingerprint lock is accurate, size accurate, only issue I have is with the blue tooth not wanting to link with my Motorcycle helmet blue tooth . Work fine with my prior phone no issues.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Shaggy06Low</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Phone works great.</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2645,29 +3441,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>This was a great buy for the price. Screen size is amazing and great features</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Kindle Customer</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>72</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Good phone</t>
+          <t>Phone works great.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Shaggy06Low</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
+        <is>
+          <t>Reception is ok, but I live in a very very rural area. Fingerprint lock is accurate, size accurate, only issue I have is with the blue tooth not wanting to link with my Motorcycle helmet blue tooth . Work fine with my prior phone no issues.</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2679,25 +3486,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>I bought this phone because the ad said it is unlocked. I use AT&amp;T. When I insert my AT&amp;T sim into the phone, it disabled my sim card. I checked with ATT customer supports to ask why my sim was locked, the answer was the Samsung phone is a Verizon lock, does not work for ATT. I sent the phone back to seller and they refund me quickly.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Ptoanhtienvn</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>73</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The phone is locked. However, I gave othem 4 stars because they processed the refund quick.</t>
+          <t>Good phone</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Kindle Customer</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
+        <is>
+          <t>This was a great buy for the price. Screen size is amazing and great features</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2705,29 +3523,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>So far so good been using it for 1 week already and it's smooth great and perfect for me ! It was unlocked and ready to go :) I hope it works forever , fingerprint works camera works .pen works battery is normal</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>74</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t>The phone is locked. However, I gave othem 4 stars because they processed the refund quick.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Ptoanhtienvn</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>I bought this phone because the ad said it is unlocked. I use AT&amp;T. When I insert my AT&amp;T sim into the phone, it disabled my sim card. I checked with ATT customer supports to ask why my sim was locked, the answer was the Samsung phone is a Verizon lock, does not work for ATT. I sent the phone back to seller and they refund me quickly.</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2739,88 +3568,121 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>75</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Great phone</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>So far so good been using it for 1 week already and it's smooth great and perfect for me ! It was unlocked and ready to go :) I hope it works forever , fingerprint works camera works .pen works battery is normal</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>76</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Samsung has really stepped up and polished their software.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Derko</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>I can't state how much Samsung has improved their software. It feels so clean and smooth. I initially considered this phone because the latest pixel phones look ugly af and needed a new phone. You won't be disappointed if you're coming from stock android like me.
 9 months later and it's still holding. No defective parts, the battery which I feared because of reviews is actually so good. It will last you a full day with moderate use and that's a small price to pay to have a "small" phone.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Derko</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Samsung has really stepped up and polished their software.</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>6 people found this helpful</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>77</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Price was good, but screen was all scrarched</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>I bought this S22 Ultra 512GB in "good" condition from Re-Cell for $780. It was aa good price but phone has two issues so I had to return it. First was the noticable scratches all over the screen. I could see them, and also feel them with my finger when using the phones screen. Swcond issue was the earpiece speaker sounded like it was damaged and wouldnt sound good past medium volume.
 I ended up returning this because I don't see how it could be a renewed phone.
 I then bought the S22 Ultra 512GB as Amazon Warehouse Deal in "Like New" condition for $840. It came in the original Samsung box, and has the plastic on the screen. When I pulled it off there was no scratches...basically brand new. Also the earpiece sounded much better.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Sam</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Price was good, but screen was all scrarched</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Happy with this buy. Everything works perfectly. Recommend:)</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Mia</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Works great</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2828,29 +3690,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>We will definitely buy from this seller again!!! My phone arrived early, it is in excellent shape as advertised (has 2 itty bitty spots bellow cameras in back), front screen is in perfect condition. Phone looks brand new, and it's system works perfectly would never know it is refurbished or renewed! Am in love with the camera! As far as video goes, when zoomed in all the way out as far as it can go, it's a tiny bit grainy yet most cell phone cameras are; it does a phenomenal job refocusing when changing the zoom as you can see! One never knows what they are going to get when ordering online through Amazon, am 100% happy with this purchase would highly recommend purchasing your cell phone needs from the seller!!!</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CS Flores</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>78</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Extremely Happy with Samsung S22+</t>
+          <t>Works great</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>Mia</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Happy with this buy. Everything works perfectly. Recommend:)</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2862,25 +3735,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parece nuevo y en muy buenas condiciones 0 raya duras compre un iPhone que fue todo lo contrario , pero este estuvo bien el único detalle es el 89% de batería pero esta bien para ser renewed</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Jesus Molina</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>79</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>No está mal por el precio</t>
+          <t>Extremely Happy with Samsung S22+</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>CS Flores</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
+        <is>
+          <t>We will definitely buy from this seller again!!! My phone arrived early, it is in excellent shape as advertised (has 2 itty bitty spots bellow cameras in back), front screen is in perfect condition. Phone looks brand new, and it's system works perfectly would never know it is refurbished or renewed! Am in love with the camera! As far as video goes, when zoomed in all the way out as far as it can go, it's a tiny bit grainy yet most cell phone cameras are; it does a phenomenal job refocusing when changing the zoom as you can see! One never knows what they are going to get when ordering online through Amazon, am 100% happy with this purchase would highly recommend purchasing your cell phone needs from the seller!!!</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2888,29 +3772,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Condition was new sound is good and speed is good</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Nicholas</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>80</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t>No está mal por el precio</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Jesus Molina</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>Parece nuevo y en muy buenas condiciones 0 raya duras compre un iPhone que fue todo lo contrario , pero este estuvo bien el único detalle es el 89% de batería pero esta bien para ser renewed</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2922,25 +3817,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Works like new. Very happy so far</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Redd</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>81</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
+        <is>
+          <t>Condition was new sound is good and speed is good</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2952,25 +3858,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nice features, but more ads than my previous Samsung S8. Also, the battery doesn't last as long as I thought it would.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Herb</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>82</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Battery life is just OK</t>
+          <t>Worth the money</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Redd</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
+        <is>
+          <t>Works like new. Very happy so far</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2978,29 +3895,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Excellent phone</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>HUGO FIGARI</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>83</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>excellent cellphone</t>
+          <t>Battery life is just OK</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>Herb</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Nice features, but more ads than my previous Samsung S8. Also, the battery doesn't last as long as I thought it would.</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3008,29 +3936,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Other than arriving in generic packaging, you can't tell that it's not a new phone. Battery life appears to be excellent so far. Could not be happier if I had bought a brand new one, and definitely a great upgrade from my Note 8. One thing I will say that is disappointing is that Samsung has stopped supporting ANT+ devices, so for the time being I have to use my Note 8 to record my workouts so I can still track my heart rate until I purchase a new HRM.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Time2Panic</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>84</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Could not tell it was not new</t>
+          <t>excellent cellphone</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>HUGO FIGARI</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
+        <is>
+          <t>Excellent phone</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3038,29 +3977,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>This is not a review of the phone (which is excellent), it's about the SELLER. The phone Re-Cell sent me was in absolutely perfect, brand-new condition. I wouldn't hesitate to buy another phone from them the next time I need one. Superb.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B. Banks</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>85</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RE-CELL is an EXCELLENT seller.</t>
+          <t>Could not tell it was not new</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Time2Panic</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
+        <is>
+          <t>Other than arriving in generic packaging, you can't tell that it's not a new phone. Battery life appears to be excellent so far. Could not be happier if I had bought a brand new one, and definitely a great upgrade from my Note 8. One thing I will say that is disappointing is that Samsung has stopped supporting ANT+ devices, so for the time being I have to use my Note 8 to record my workouts so I can still track my heart rate until I purchase a new HRM.</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3072,25 +4022,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>It's a great item and original no fake. However I feel that the battery was used alot and doesn't last long</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Jimena O.</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>86</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Good customer service and delivery</t>
+          <t>RE-CELL is an EXCELLENT seller.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>B. Banks</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>This is not a review of the phone (which is excellent), it's about the SELLER. The phone Re-Cell sent me was in absolutely perfect, brand-new condition. I wouldn't hesitate to buy another phone from them the next time I need one. Superb.</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3102,25 +4063,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Received as advertised thanks</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Excellent condition as advertised</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>87</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Samsung s22plus excellent condition</t>
+          <t>Good customer service and delivery</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Jimena O.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
+        <is>
+          <t>It's a great item and original no fake. However I feel that the battery was used alot and doesn't last long</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3128,241 +4100,329 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>88</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Samsung s22plus excellent condition</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Excellent condition as advertised</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Received as advertised thanks</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>89</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Not an "excellent" condition. More like a "fair"</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>CAIO A.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>There are scratches all over the phone, including camera lens.</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>90</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>puedo usarlo fuera de EE UU completamente desbloqueado</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Pauly</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>me llego con unos pequeños rasguños en los extremos pero la pantalla impecable y funcionamiento perfecto la bateria dura menos de lo esperado pero finalmente tampoco es que se descargue rapido</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>91</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Arrived dead with previous owners data</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Brayden w.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Still had the previous users data on it and arrived dead as a doorknob. Perfectly functioning though.</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>92</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Excelente producto por su valor en dinero</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SG29</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No conocía sobre los Amazon Renewed, ha sido una gran sorppresa y de muy buen uso.</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>93</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Perfect condition</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Fred Schadek</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>As a renewed product, I was expecting to see some evidence of use and simply hoping that it would be tolerable. I was pleasantly surprised to find NO evidence whatsoever; no scratches, no scuffs, not even finger prints. The unit was well packaged and delivered earlier than originally promised. I honestly cannot think of anything that could make this transaction better. If I could give it 10 stars, I would.</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>94</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No es compatible con el cel</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Yocasta</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No ajusta donde están las camaras</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>95</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Excellent phone connectivity, phone call quality, speed</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>Bought the S22+ through Amazon's Renewed program. Your mileage may vary, but my experience was nothing but outstanding. Phone advertised as excellent condition, appeared new (no scratches/blemishes). The only issue (extremely minor) was the phone initially started with an error, required a restart, but worked perfectly after the restart.
 The transfer from my old phone to the S22+ required more manual configuration on apps, home screens, etc than on previous phones. But that's an initial/one-time issue.
 5G connectivity is better on the S22+ than the phone it replaced, call audio is WAY better, and the phone is very fast.</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Bob</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Excellent phone connectivity, phone call quality, speed</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
+      <c r="G96" t="n">
+        <v>5</v>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>7 people found this helpful</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>There are scratches all over the phone, including camera lens.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CAIO A.</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Not an "excellent" condition. More like a "fair"</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>4</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>me llego con unos pequeños rasguños en los extremos pero la pantalla impecable y funcionamiento perfecto la bateria dura menos de lo esperado pero finalmente tampoco es que se descargue rapido</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Pauly</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>puedo usarlo fuera de EE UU completamente desbloqueado</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2 people found this helpful</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>4</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Still had the previous users data on it and arrived dead as a doorknob. Perfectly functioning though.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Brayden w.</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Arrived dead with previous owners data</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>One person found this helpful</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>4</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>No conocía sobre los Amazon Renewed, ha sido una gran sorppresa y de muy buen uso.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>SG29</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Excelente producto por su valor en dinero</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>As a renewed product, I was expecting to see some evidence of use and simply hoping that it would be tolerable. I was pleasantly surprised to find NO evidence whatsoever; no scratches, no scuffs, not even finger prints. The unit was well packaged and delivered earlier than originally promised. I honestly cannot think of anything that could make this transaction better. If I could give it 10 stars, I would.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Fred Schadek</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Perfect condition</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2 people found this helpful</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>2</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>No ajusta donde están las camaras</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Yocasta</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>No es compatible con el cel</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>5</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>The phone arrived in excellent condition, as pictured and stated. It just doesn't get good service at my home.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Deb</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Great phone</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3370,29 +4430,40 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>I ordered a renewed product but it came like new. Absolutly no scratches at all, battery holds very well and phone was unlocked as advertised so i used it on StraigtTalk and also i was able to use Vodafone simcard when i traveled to Europe.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Cristian V.</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>96</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Perfect product</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>Deb</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>The phone arrived in excellent condition, as pictured and stated. It just doesn't get good service at my home.</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3400,29 +4471,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The phone worked pretty well for about 8 months. Immediately after receiving the phone I realized talk to text did not work so I had to have that immediately repaired. Samsung had me take it to a local repair shop. I did notice a rattle in the phone after having the repair done. Not sure if they replaced something else that caused the rattle. About 8 months later the phone signal is very poor. After looking online I saw other people had this issue as well. It would require a new motherboard which is going to cost a lot more than I want to pay. Because I only paid $800 for this phone it only had a 3-month warranty on it. I would definitely recommend buying a new phone to anyone considering going the used route. Of course you might be luckier than me and want to save a few bucks.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Linda Marchbanks</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>97</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Good phone for 8 months, but trash now</t>
+          <t>Perfect product</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Cristian V.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
+        <is>
+          <t>I ordered a renewed product but it came like new. Absolutly no scratches at all, battery holds very well and phone was unlocked as advertised so i used it on StraigtTalk and also i was able to use Vodafone simcard when i traveled to Europe.</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3434,25 +4516,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>The phone is in excellent condition. The biggest areas for improvement would be the packaging as the phone was fairly loose inside the box and rattled around inside. The other thing I would do is put in the description if the phone is branded or not. There are preinstalled apps and a splash screen on start up, with the service provider's logo that originally sold the phone, that can not be removed without rooting the phone. So I have an AT&amp;T phone that I am using with T-Mobile</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Daniel206</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>98</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Almost perfect</t>
+          <t>Good phone for 8 months, but trash now</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>14 people found this helpful</t>
+          <t>Linda Marchbanks</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
+        <is>
+          <t>The phone worked pretty well for about 8 months. Immediately after receiving the phone I realized talk to text did not work so I had to have that immediately repaired. Samsung had me take it to a local repair shop. I did notice a rattle in the phone after having the repair done. Not sure if they replaced something else that caused the rattle. About 8 months later the phone signal is very poor. After looking online I saw other people had this issue as well. It would require a new motherboard which is going to cost a lot more than I want to pay. Because I only paid $800 for this phone it only had a 3-month warranty on it. I would definitely recommend buying a new phone to anyone considering going the used route. Of course you might be luckier than me and want to save a few bucks.</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3460,29 +4553,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ordered from re cell after reading the reviews the phone came in a box like new, not a single scratch everything works, perfect one bought the green all recommendations for re cell</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Kawasakica</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>99</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Galaxy s22</t>
+          <t>Almost perfect</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Daniel206</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>The phone is in excellent condition. The biggest areas for improvement would be the packaging as the phone was fairly loose inside the box and rattled around inside. The other thing I would do is put in the description if the phone is branded or not. There are preinstalled apps and a splash screen on start up, with the service provider's logo that originally sold the phone, that can not be removed without rooting the phone. So I have an AT&amp;T phone that I am using with T-Mobile</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>14 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3490,29 +4594,40 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>I got the phone and unlike the "Excellent" description meaning you cannot see blemishes when held a foot away, you can definitely see scratches and fading on the corners and sides. That being said, it is not the worst thing about this phone. the worst thing is that the charging port is busted so you have to push in the charger and set it at an angle otherwise it stops charging. Another thing is the battery drains faster than my old phone! The whole reason I even bought a new phone was because the battery was draining so quickly and now this one is worse! These idiots are just trying to scam you. they bought a bulk case of phones, wiped them down, reset them, then shipped them out and thats about it. scammed again on Amazon. shocker....</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>EV</t>
-        </is>
+          <t>Amazon4</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>100</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quick buck sellers</t>
+          <t>Galaxy s22</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Kawasakica</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
+        <is>
+          <t>Ordered from re cell after reading the reviews the phone came in a box like new, not a single scratch everything works, perfect one bought the green all recommendations for re cell</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
